--- a/biology/Zoologie/Domeykos/Domeykos.xlsx
+++ b/biology/Zoologie/Domeykos/Domeykos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Domeykos profetaensis
 Domeykos est un genre fossile de poissons à nageoires rayonnées de la famille également fossile des Varasichthyidae qui vivaient lors de l’Oxfordien du Jurassique supérieur. Une seule espèce est connue, Domeykos profetaensis.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Domeykos profetaensis est un poisson à la forme élancée et présentant une toit crânien plat[1]. Sa taille atteint pratiquement 17 cm dont le tiers pour la tête[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Domeykos profetaensis est un poisson à la forme élancée et présentant une toit crânien plat. Sa taille atteint pratiquement 17 cm dont le tiers pour la tête.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Domeykos et l'espèce Domeykos profetaensis ont été décrits en 1985 par Gloria Arratia (d) et Hans-Peter Schultze (d)[2],[1]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Domeykos et l'espèce Domeykos profetaensis ont été décrits en 1985 par Gloria Arratia (d) et Hans-Peter Schultze (d),
 </t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, Domeykos, fait référence à la Cordillera Domeyko (en) où les fossiles ont été découverts[1].
-L'épithète spécifique, profetaensis, composée de profeta et du suffixe latin -ensis, « qui vit dans, qui habite », a été donnée en référence à la localité Quebrada El Profeta, dans la Cordillera Domeyko[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, Domeykos, fait référence à la Cordillera Domeyko (en) où les fossiles ont été découverts.
+L'épithète spécifique, profetaensis, composée de profeta et du suffixe latin -ensis, « qui vit dans, qui habite », a été donnée en référence à la localité Quebrada El Profeta, dans la Cordillera Domeyko.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) Gloria Arratia et Hans-Peter Schultze, « Late Jurassic teleosts (Actinopterygii, Pisces) from northern Chile and Cuba », Palaeontographica Abteilung A., Allemagne, vol. 189, nos 4-6,‎ 1985, p. 29-61 (lire en ligne).</t>
         </is>
